--- a/DOM_Banner/output/dept0713/Dawn K Coletta_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Dawn K Coletta_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,80 +447,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sarah Voisin, Kirsten Seale, Jacques Michaux, Shanie Landen, Nicholas R Harvey, Larisa M. Haupt, Lyn R. Griffiths, Kevin J. Ashton, Vernon G. Coffey, Jamie-Lee M Thompson, Thomas Doering, Maléne E. Lindholm, Colum P. Walsh, Gareth W. Davison, Rachelle E Irwin, Catherine McBride, Ola Hansson, Olof Asplund, Aino Heikkinen, Päivi Piirilä, Kirsi H. Pietiläinen, Miina Ollikainen, Sara Blocquiaux, Martine Thomis, Coletta K. Dawn, Adam P. Sharples, Nir Eynon</t>
+          <t>Sarah Voisin, Kirsten Seale, Jacques Michaux, Shanie Landen, Nicholas R Harvey, Larisa M. Haupt, Lyn R. Griffiths, Kevin J. Ashton, Vernon G. Coffey, Jamie-Lee M Thompson, Thomas Doering, Maléne E. Lindholm, Colum P. Walsh, Gareth W. Davison, Rachelle E Irwin, Catherine McBride, Ola Hansson, Olof Asplund, Aino Heikkinen, Paivi Piirilä, Kirsi H. Pietiläinen, Miina Ollikainen, Sara Blocquiaux, Martine Thomis, Coletta K. Dawn, Adam P. Sharples, Nir Eynon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Institute for Health and Sport (iHeS), Victoria University, Footscray, Victoria, Australia; Novo Nordisk Foundation Center for Basic Metabolic Research, Faculty of Health and Medical Sciences, University of Copenhagen, Copenhagen, Denmark; Institute for Health and Sport (iHeS) Victoria University  Footscray Victoria Australia; Institute for Health and Sport (iHeS) Victoria University  Footscray Victoria Australia; Institute for Health and Sport (iHeS) Victoria University  Footscray Victoria Australia; Faculty of Health Sciences and Medicine Bond University  Gold Coast Queensland Australia; Genomics Research Centre, Centre for Genomics and Personalised Health, School of Biomedical Sciences Queensland University of Technology  Brisbane Queensland Australia; Genomics Research Centre, Centre for Genomics and Personalised Health, School of Biomedical Sciences Queensland University of Technology  Brisbane Queensland Australia; Max Planck Queensland Centre for the Materials Sciences of Extracellular Matrices  Brisbane Queensland Australia; Genomics Research Centre, Centre for Genomics and Personalised Health, School of Biomedical Sciences Queensland University of Technology  Brisbane Queensland Australia; Faculty of Health Sciences and Medicine Bond University  Gold Coast Queensland Australia; Faculty of Health Sciences and Medicine Bond University  Gold Coast Queensland Australia; Faculty of Health Sciences and Medicine Bond University  Gold Coast Queensland Australia; School of Health, Medical and Applied Sciences Central Queensland University  Rockhampton Queensland Australia; Department of Medicine, School of Medicine Stanford University  Stanford California USA; Genomic Medicine Research Group, School of Biomedical Sciences Ulster University  Coleraine UK; Sport and Exercise Sciences Research Institute Ulster University  Belfast UK; Genomic Medicine Research Group, School of Biomedical Sciences Ulster University  Coleraine UK; Sport and Exercise Sciences Research Institute Ulster University  Belfast UK; Department of Clinical Sciences, Genomics, Diabetes and Endocrinology Unit, Lund University Diabetes Center Lund University  Lund Sweden; Institute for Molecular Medicine Finland (FIMM) Helsinki University  Helsinki Finland; Department of Clinical Sciences, Genomics, Diabetes and Endocrinology Unit, Lund University Diabetes Center Lund University  Lund Sweden; Institute for Molecular Medicine Finland (FIMM) Helsinki University  Helsinki Finland; Unit of Clinical Physiology Helsinki University Hospital and University of Helsinki  Helsinki Finland; HealthyWeightHub, Endocrinology, Abdominal Center Helsinki University Hospital and University of Helsinki  Helsinki Finland; Obesity Research Unit, Research Program for Clinical and Molecular Metabolism, Faculty of Medicine University of Helsinki  Helsinki Finland; Institute for Molecular Medicine Finland (FIMM) Helsinki University  Helsinki Finland; Minerva Foundation Institute for Medical Research  Helsinki Finland; Department of Movement Sciences, Physical Activity, Sports and Health Research Group KU Leuven  Leuven Belgium; Department of Movement Sciences, Physical Activity, Sports and Health Research Group KU Leuven  Leuven Belgium; Department of Medicine, Division of Endocrinology University of Arizona  Tucson Arizona USA; Institute of Physical Performance Norwegian School of Sport Sciences  Oslo Norway; Australian Regenerative Medicine Institute, Monash University, Clayton, Victoria, Australia; Institute for Health and Sport (iHeS), Victoria University, Footscray, Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367669534</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Exercise is associated with younger methylome and transcriptome profiles in human skeletal muscle</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Aging Cell</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/acel.13859</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37128843</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/acel.13859</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307974510</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Fuel Selection in Skeletal Muscle Exercising at Low Intensity; Reliance on Carbohydrate in Very Sedentary Individuals</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Metabolic Syndrome and Related Disorders</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Mary Ann Liebert, Inc.</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36318809</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1089/met.2022.0062</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>School of Nutritional Sciences and Wellness, University of Arizona, Tucson, AZ 85721, USA; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ 85724, USA; Division of Endocrinology, Metabolism and Diabetes, Mayo Clinic Arizona, Scottsdale, AZ 85259, USA; Center for Health Promotion and Disease Prevention, Arizona State University, Phoenix, AZ 85004, USA; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ 85724, USA; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367316410</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Association of Vitamin D Receptor Gene Polymorphisms with Cardiometabolic Phenotypes in Hispanics: A Life Course Approach</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Nutrients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/nu15092118</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37432296</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/nu15092118</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378675402</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Identification of novel changes in skeletal muscle proteome after sildenafil treatment</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Physiology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Physiological Society</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383556481</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Frontiers in Physiology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Pharmacy, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Dr. Herbert A. Wertheim Professor of Inflammation Science, Director, Center for Inflammation Science and Systems Medicine, University of Florida Scripps Research Institute, Jupiter, FL 33458, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384924313</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Linkage of NAMPT promoter variants to eNAMPT secretion, plasma eNAMPT levels, and ARDS severity</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Therapeutic Advances in Respiratory Disease</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/17534666231181262</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37477094</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/17534666231181262</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385307501</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>P10-006-23 Impact of FADS and ELOVL2/5 Genetic Variation on Fatty Acid and Cardiometabolic Endpoints in Mexican American Individuals</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Current Developments in Nutrition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Physiology, University of Arizona, Tucson, Arizona, USA; Department of Physiology, University of Arizona, Tucson, Arizona, USA; Department of Physiology, University of Arizona, Tucson, Arizona, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, Arizona, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388011409</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Inspiratory Muscle Strength Training to Improve Cardiometabolic Health in Patients with Type 2 Diabetes Mellitus: Protocol for the Diabetes Inspiratory Training (DIT) Clinical Trial</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.10.27.23297688</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.10.27.23297688</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Sarver Heart Cntr, Univ of Arizona, Tucson, AZ; Sarver Heart Cntr, Univ of Arizona, Tucson, AZ; Univ of Minnesota, Minneapolis, MN; Sarver Heart Cntr, Univ of Arizona, Tucson, AZ; College of Medicine, Univ of Arizona, Tucson, AZ; College of Medicine, Univ of Arizona, Tucson, AZ; Tulane Univestiy Sch of Medicine, New Orleans, LA; Pathology, New York Univ, New York, NY; College of Engineering, Univ of Arizona, Tucson, AZ; Univ of Arizona, tucson, AZ; Sarver Heart Cntr, Univ of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389956759</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Abstract 17096: Immune Modulation to Treat Ischemic Heart Failure</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.148.suppl_1.17096</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.148.suppl_1.17096</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Dawn K Coletta_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Dawn K Coletta_2023.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sarah Voisin, Kirsten Seale, Jacques Michaux, Shanie Landen, Nicholas R Harvey, Larisa M. Haupt, Lyn R. Griffiths, Kevin J. Ashton, Vernon G. Coffey, Jamie-Lee M Thompson, Thomas Doering, Maléne E. Lindholm, Colum P. Walsh, Gareth W. Davison, Rachelle E Irwin, Catherine McBride, Ola Hansson, Olof Asplund, Aino Heikkinen, Paivi Piirilä, Kirsi H. Pietiläinen, Miina Ollikainen, Sara Blocquiaux, Martine Thomis, Coletta K. Dawn, Adam P. Sharples, Nir Eynon</t>
+          <t>Sarah Voisin, Kirsten Seale, Jacques Michaux, Shanie Landen, Nicholas R Harvey, Larisa M. Haupt, Lyn R. Griffiths, Kevin J. Ashton, Vernon G. Coffey, Jamie-Lee M Thompson, Thomas Doering, Maléne E. Lindholm, Colum P. Walsh, Gareth W. Davison, Rachelle E Irwin, Catherine McBride, Ola Hansson, Olof Asplund, Aino Heikkinen, Päivi Piirilä, Kirsi H. Pietiläinen, Miina Ollikainen, Sara Blocquiaux, Martine Thomis, Coletta K. Dawn, Adam P. Sharples, Nir Eynon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -708,57 +708,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Linda Wu, Luis Garcı́a, Austin A. Lipinski, Paul Langlais, Dawn K. Coletta</t>
+          <t>Heather Lynn, Xiaoguang Sun, Nancy G. Casanova, Christian Bime, Vivian Reyes Hernon, Clayton Lanham, Radu C. Oita, N. Ramos, Belinda Sun, Dawn K. Coletta, Sara M. Camp, Jason H. Karnes, Nathan A. Ellis, Joe G.N. Garcia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
+          <t>College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Pharmacy, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Dr. Herbert A. Wertheim Professor of Inflammation Science, Director, Center for Inflammation Science and Systems Medicine, University of Florida Scripps Research Institute, Jupiter, FL 33458, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378675402</t>
+          <t>https://openalex.org/W4384924313</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Identification of novel changes in skeletal muscle proteome after sildenafil treatment</t>
+          <t>Linkage of NAMPT promoter variants to eNAMPT secretion, plasma eNAMPT levels, and ARDS severity</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Physiology</t>
+          <t>Therapeutic Advances in Respiratory Disease</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>American Physiological Society</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
+          <t>https://doi.org/10.1177/17534666231181262</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37477094</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
+          <t>https://doi.org/10.1177/17534666231181262</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa B. Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Sarah Blomquist, J.C. Albrecht, Brian Hallmark, Luis Garcı́a, Lawrence J. Mandarino, Dawn K. Coletta, Floyd H. Chilton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383556481</t>
+          <t>https://openalex.org/W4385307501</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
+          <t>P10-006-23 Impact of FADS and ELOVL2/5 Genetic Variation on Fatty Acid and Cardiometabolic Endpoints in Mexican American Individuals</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frontiers in Physiology</t>
+          <t>Current Developments in Nutrition</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
+          <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
+          <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,57 +882,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Heather Lynn, Xiaoguang Sun, Nancy G. Casanova, Christian Bime, Vivian Reyes Hernon, Clayton Lanham, Radu C. Oita, N. Ramos, Belinda Sun, Dawn K. Coletta, Sara M. Camp, Jason H. Karnes, Nathan A. Ellis, Joe G.N. Garcia</t>
+          <t>Linda Wu, Luis Garcı́a, Austin A. Lipinski, Paul Langlais, Dawn K. Coletta</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Pharmacy, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Dr. Herbert A. Wertheim Professor of Inflammation Science, Director, Center for Inflammation Science and Systems Medicine, University of Florida Scripps Research Institute, Jupiter, FL 33458, USA</t>
+          <t>University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States; University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384924313</t>
+          <t>https://openalex.org/W4378675402</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Linkage of NAMPT promoter variants to eNAMPT secretion, plasma eNAMPT levels, and ARDS severity</t>
+          <t>Identification of novel changes in skeletal muscle proteome after sildenafil treatment</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Therapeutic Advances in Respiratory Disease</t>
+          <t>Physiology</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>American Physiological Society</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/17534666231181262</t>
+          <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37477094</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/17534666231181262</t>
+          <t>https://doi.org/10.1152/physiol.2023.38.s1.5731380</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sarah Blomquist, J.C. Albrecht, Brian Hallmark, Luis Garcı́a, Lawrence J. Mandarino, Dawn K. Coletta, Floyd H. Chilton</t>
+          <t>Rocio Zapata Bustos, Dawn K. Coletta, Jean‐Philippe Galons, Lisa Davidson, Paul Langlais, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t>Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Department of Physiology, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Department of Medical Imaging, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Tucson, AZ, United States; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385307501</t>
+          <t>https://openalex.org/W4383556481</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P10-006-23 Impact of FADS and ELOVL2/5 Genetic Variation on Fatty Acid and Cardiometabolic Endpoints in Mexican American Individuals</t>
+          <t>Nonequilibrium thermodynamics and mitochondrial protein content predict insulin sensitivity and fuel selection during exercise in human skeletal muscle</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Current Developments in Nutrition</t>
+          <t>Frontiers in Physiology</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
+          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37485059</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cdnut.2023.101673</t>
+          <t>https://doi.org/10.3389/fphys.2023.1208186</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
